--- a/public/files/formato_subida_masiva.xlsx
+++ b/public/files/formato_subida_masiva.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeffer\Documents\Nueva carpeta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp2\htdocs\habeas\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Nombre</t>
   </si>
@@ -123,6 +123,12 @@
   </si>
   <si>
     <t>tipo_registro</t>
+  </si>
+  <si>
+    <t>Asesor comercial</t>
+  </si>
+  <si>
+    <t>COLCAN</t>
   </si>
 </sst>
 </file>
@@ -178,7 +184,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -195,7 +201,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -457,13 +463,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
@@ -487,9 +493,10 @@
     <col min="21" max="21" width="14.5703125" customWidth="1"/>
     <col min="22" max="22" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -559,8 +566,11 @@
       <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -583,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>86660011</v>
+        <v>858585228</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -629,6 +639,9 @@
       </c>
       <c r="W2" s="2">
         <v>1</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/public/files/formato_subida_masiva.xlsx
+++ b/public/files/formato_subida_masiva.xlsx
@@ -101,9 +101,6 @@
     <t>Annardx</t>
   </si>
   <si>
-    <t>Calle 65 # 60-15</t>
-  </si>
-  <si>
     <t>Sin comentarios</t>
   </si>
   <si>
@@ -129,6 +126,9 @@
   </si>
   <si>
     <t>COLCAN</t>
+  </si>
+  <si>
+    <t>Calle 65 # 60-18</t>
   </si>
 </sst>
 </file>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,13 +498,13 @@
   <sheetData>
     <row r="1" spans="1:24" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -516,13 +516,13 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>4</v>
@@ -567,7 +567,7 @@
         <v>15</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
       <c r="H2" s="2">
-        <v>858585228</v>
+        <v>3333</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>20</v>
@@ -626,7 +626,7 @@
         <v>3167890235</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="T2" s="2">
         <v>123</v>
@@ -635,13 +635,13 @@
         <v>0</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W2" s="2">
         <v>1</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
